--- a/app/Licenciatura_em_Quimica_Industrial.xlsx
+++ b/app/Licenciatura_em_Quimica_Industrial.xlsx
@@ -13,31 +13,29 @@
     <sheet name="20154119" sheetId="3" r:id="rId6"/>
     <sheet name="20154113" sheetId="4" r:id="rId7"/>
     <sheet name="20154120" sheetId="5" r:id="rId8"/>
-    <sheet name="20154774" sheetId="6" r:id="rId9"/>
-    <sheet name="20154492" sheetId="7" r:id="rId10"/>
-    <sheet name="20154107" sheetId="8" r:id="rId11"/>
-    <sheet name="20154123" sheetId="9" r:id="rId12"/>
-    <sheet name="20154114" sheetId="10" r:id="rId13"/>
-    <sheet name="20154106" sheetId="11" r:id="rId14"/>
-    <sheet name="20154103" sheetId="12" r:id="rId15"/>
-    <sheet name="20154124" sheetId="13" r:id="rId16"/>
-    <sheet name="20154115" sheetId="14" r:id="rId17"/>
-    <sheet name="20154118" sheetId="15" r:id="rId18"/>
-    <sheet name="20154116" sheetId="16" r:id="rId19"/>
-    <sheet name="20154126" sheetId="17" r:id="rId20"/>
-    <sheet name="20154109" sheetId="18" r:id="rId21"/>
-    <sheet name="20154105" sheetId="19" r:id="rId22"/>
-    <sheet name="20154111" sheetId="20" r:id="rId23"/>
-    <sheet name="20154125" sheetId="21" r:id="rId24"/>
-    <sheet name="20154122" sheetId="22" r:id="rId25"/>
-    <sheet name="20154121" sheetId="23" r:id="rId26"/>
-    <sheet name="20154112" sheetId="24" r:id="rId27"/>
-    <sheet name="20154117" sheetId="25" r:id="rId28"/>
-    <sheet name="20154104" sheetId="26" r:id="rId29"/>
-    <sheet name="20154102" sheetId="27" r:id="rId30"/>
-    <sheet name="20154110" sheetId="28" r:id="rId31"/>
-    <sheet name="Sheet2" sheetId="29" r:id="rId32"/>
-    <sheet name="Sheet3" sheetId="30" r:id="rId33"/>
+    <sheet name="20154107" sheetId="6" r:id="rId9"/>
+    <sheet name="20154123" sheetId="7" r:id="rId10"/>
+    <sheet name="20154114" sheetId="8" r:id="rId11"/>
+    <sheet name="20154106" sheetId="9" r:id="rId12"/>
+    <sheet name="20154103" sheetId="10" r:id="rId13"/>
+    <sheet name="20154124" sheetId="11" r:id="rId14"/>
+    <sheet name="20154115" sheetId="12" r:id="rId15"/>
+    <sheet name="20154118" sheetId="13" r:id="rId16"/>
+    <sheet name="20154116" sheetId="14" r:id="rId17"/>
+    <sheet name="20154126" sheetId="15" r:id="rId18"/>
+    <sheet name="20154109" sheetId="16" r:id="rId19"/>
+    <sheet name="20154105" sheetId="17" r:id="rId20"/>
+    <sheet name="20154111" sheetId="18" r:id="rId21"/>
+    <sheet name="20154125" sheetId="19" r:id="rId22"/>
+    <sheet name="20154122" sheetId="20" r:id="rId23"/>
+    <sheet name="20154121" sheetId="21" r:id="rId24"/>
+    <sheet name="20154112" sheetId="22" r:id="rId25"/>
+    <sheet name="20154117" sheetId="23" r:id="rId26"/>
+    <sheet name="20154104" sheetId="24" r:id="rId27"/>
+    <sheet name="20154102" sheetId="25" r:id="rId28"/>
+    <sheet name="20154110" sheetId="26" r:id="rId29"/>
+    <sheet name="Sheet2" sheetId="27" r:id="rId30"/>
+    <sheet name="Sheet3" sheetId="28" r:id="rId31"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="0"/>
@@ -45,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="239">
   <si>
     <t>UNIVERSIDADE EDUARDO MONDLANE</t>
   </si>
@@ -194,9 +192,6 @@
     <t>Rita Feniasse Massango</t>
   </si>
   <si>
-    <t>Distrito de Massinga</t>
-  </si>
-  <si>
     <t>Masculino</t>
   </si>
   <si>
@@ -233,9 +228,6 @@
     <t>Cristina David</t>
   </si>
   <si>
-    <t>Cidade de Beira</t>
-  </si>
-  <si>
     <t>070101460265F</t>
   </si>
   <si>
@@ -260,9 +252,6 @@
     <t>Ancha Fatil</t>
   </si>
   <si>
-    <t>Cidade de Nampula</t>
-  </si>
-  <si>
     <t>030104931934B</t>
   </si>
   <si>
@@ -287,9 +276,6 @@
     <t>Anifa Hamido Machava</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamubukwana</t>
-  </si>
-  <si>
     <t>110504482437B</t>
   </si>
   <si>
@@ -299,21 +285,6 @@
     <t>Escola Secundaria Quisse Mavota</t>
   </si>
   <si>
-    <t>Pinto</t>
-  </si>
-  <si>
-    <t>Sónia Felícia</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>Nhatumbo</t>
-  </si>
-  <si>
-    <t>Abilio Abrão</t>
-  </si>
-  <si>
     <t>Nhapele</t>
   </si>
   <si>
@@ -329,9 +300,6 @@
     <t>Laurinda A. Chavanguane</t>
   </si>
   <si>
-    <t>Distrito Municipal de Kampfumo</t>
-  </si>
-  <si>
     <t>Feminino</t>
   </si>
   <si>
@@ -380,9 +348,6 @@
     <t>Berta Alfredo</t>
   </si>
   <si>
-    <t>Distrito de Mavalane</t>
-  </si>
-  <si>
     <t>110102503672I</t>
   </si>
   <si>
@@ -431,9 +396,6 @@
     <t xml:space="preserve">Anastancia Ezequias </t>
   </si>
   <si>
-    <t>Distrito de Boane</t>
-  </si>
-  <si>
     <t>100201173647P</t>
   </si>
   <si>
@@ -458,9 +420,6 @@
     <t xml:space="preserve">AtÁlia Vicente </t>
   </si>
   <si>
-    <t>Distrito Municipal Kamaxaquene</t>
-  </si>
-  <si>
     <t>Talao de Carta de Conducao</t>
   </si>
   <si>
@@ -554,9 +513,6 @@
     <t>Olga Ernesto Magaia</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamavota</t>
-  </si>
-  <si>
     <t>110101581099M</t>
   </si>
   <si>
@@ -711,9 +667,6 @@
   </si>
   <si>
     <t>Filomena Elias Come</t>
-  </si>
-  <si>
-    <t>Distrito de Namaacha</t>
   </si>
   <si>
     <t>100800592887B</t>
@@ -2042,7 +1995,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154114</v>
+        <v>20154103</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -2066,7 +2019,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2082,7 +2035,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2098,7 +2051,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2114,7 +2067,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2130,7 +2083,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2145,9 +2098,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>111</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2155,7 +2106,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2166,7 +2117,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2175,7 +2126,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2187,7 +2138,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2195,7 +2146,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2291,7 +2242,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2318,7 +2269,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -2334,7 +2285,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -2637,7 +2588,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154106</v>
+        <v>20154124</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -2661,7 +2612,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2677,7 +2628,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2693,7 +2644,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2709,7 +2660,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2725,7 +2676,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2740,9 +2691,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>80</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2750,7 +2699,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2761,7 +2710,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2770,7 +2719,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2782,15 +2731,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>125</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>120</v>
+      <c r="H17" s="20">
+        <v>2197703</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2886,7 +2835,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2913,7 +2862,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -2929,7 +2878,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3232,7 +3181,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154103</v>
+        <v>20154115</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -3256,7 +3205,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3272,7 +3221,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3288,7 +3237,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3304,7 +3253,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3320,7 +3269,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3335,9 +3284,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>128</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3345,7 +3292,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3356,7 +3303,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3365,7 +3312,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3377,7 +3324,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3385,7 +3332,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3481,7 +3428,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3508,7 +3455,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -3524,7 +3471,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3827,7 +3774,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154124</v>
+        <v>20154118</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -3851,7 +3798,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3867,7 +3814,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3883,7 +3830,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3899,7 +3846,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3915,7 +3862,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3930,9 +3877,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>137</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3940,7 +3885,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3951,7 +3896,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3960,7 +3905,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3972,15 +3917,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>138</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20">
-        <v>2197703</v>
+      <c r="H17" s="20" t="s">
+        <v>140</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4076,7 +4021,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4103,7 +4048,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -4119,7 +4064,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4422,7 +4367,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154115</v>
+        <v>20154116</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -4446,7 +4391,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4462,7 +4407,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4478,7 +4423,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4494,7 +4439,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4510,7 +4455,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4525,9 +4470,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>94</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4535,7 +4478,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4546,7 +4489,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4555,7 +4498,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4567,7 +4510,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4575,7 +4518,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4671,7 +4614,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4714,7 +4657,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>122</v>
+        <v>150</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5017,7 +4960,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154118</v>
+        <v>20154126</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -5041,7 +4984,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5057,7 +5000,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5073,7 +5016,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5089,7 +5032,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5105,7 +5048,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5120,9 +5063,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>80</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5130,7 +5071,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5141,7 +5082,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5150,7 +5091,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5162,7 +5103,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5170,7 +5111,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5266,7 +5207,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5293,7 +5234,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -5309,7 +5250,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5612,7 +5553,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154116</v>
+        <v>20154109</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -5636,7 +5577,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5652,7 +5593,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5668,7 +5609,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5684,7 +5625,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5700,7 +5641,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5715,9 +5656,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>111</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5725,7 +5664,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5736,7 +5675,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5745,7 +5684,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5757,7 +5696,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5765,7 +5704,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5861,7 +5800,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5888,7 +5827,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -5904,7 +5843,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6207,7 +6146,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154126</v>
+        <v>20154105</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -6231,7 +6170,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6247,7 +6186,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6263,7 +6202,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6279,7 +6218,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6295,7 +6234,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6310,9 +6249,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>169</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6320,7 +6257,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6331,7 +6268,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6340,7 +6277,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6352,7 +6289,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6360,7 +6297,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6456,7 +6393,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6483,7 +6420,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -6499,7 +6436,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6802,7 +6739,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154109</v>
+        <v>20154111</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -6826,7 +6763,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6842,7 +6779,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6858,7 +6795,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6874,7 +6811,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6890,7 +6827,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6905,9 +6842,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>94</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6915,7 +6850,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6926,7 +6861,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6935,7 +6870,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6947,7 +6882,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6955,7 +6890,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7051,7 +6986,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7094,7 +7029,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>163</v>
+        <v>95</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7397,7 +7332,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154105</v>
+        <v>20154125</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -7421,7 +7356,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7437,7 +7372,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7453,7 +7388,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7469,7 +7404,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7485,7 +7420,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7500,9 +7435,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>94</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7510,7 +7443,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7521,7 +7454,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7530,7 +7463,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7542,7 +7475,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7550,7 +7483,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7646,7 +7579,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7673,7 +7606,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -7689,7 +7622,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>187</v>
+        <v>127</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8095,9 +8028,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8105,7 +8036,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8116,7 +8047,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8125,7 +8056,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8137,7 +8068,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8145,7 +8076,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8241,7 +8172,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8284,7 +8215,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8587,7 +8518,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154111</v>
+        <v>20154122</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -8690,9 +8621,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>94</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8700,7 +8629,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8711,7 +8640,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8720,7 +8649,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8732,7 +8661,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>125</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8863,7 +8792,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -8879,7 +8808,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9182,7 +9111,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154125</v>
+        <v>20154121</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -9285,9 +9214,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>111</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9295,7 +9222,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9306,7 +9233,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9315,7 +9242,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9327,7 +9254,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9474,7 +9401,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>140</v>
+        <v>202</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9777,7 +9704,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154122</v>
+        <v>20154112</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -9801,7 +9728,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9817,7 +9744,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9833,7 +9760,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9849,7 +9776,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9865,7 +9792,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9880,9 +9807,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>169</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9890,7 +9815,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9901,7 +9826,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9910,7 +9835,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9922,7 +9847,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>138</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9930,7 +9855,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10026,7 +9951,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10053,7 +9978,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -10069,7 +9994,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>119</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10372,7 +10297,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154121</v>
+        <v>20154117</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -10396,7 +10321,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10412,7 +10337,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10428,7 +10353,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10444,7 +10369,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10460,7 +10385,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10475,9 +10400,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>80</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10485,7 +10408,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10496,7 +10419,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10505,7 +10428,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10517,7 +10440,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10525,7 +10448,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10621,7 +10544,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10648,7 +10571,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -10664,7 +10587,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>216</v>
+        <v>95</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10967,7 +10890,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154112</v>
+        <v>20154104</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -11070,9 +10993,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>222</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11080,7 +11001,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11091,7 +11012,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11100,7 +11021,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11112,7 +11033,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11120,7 +11041,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11216,7 +11137,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11243,7 +11164,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -11259,7 +11180,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>131</v>
+        <v>224</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11562,7 +11483,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154117</v>
+        <v>20154102</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -11665,9 +11586,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>80</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11675,7 +11594,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11686,7 +11605,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11695,7 +11614,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11707,7 +11626,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11854,7 +11773,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12157,7 +12076,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154104</v>
+        <v>20154110</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -12260,9 +12179,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>111</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12270,7 +12187,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12281,7 +12198,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12290,7 +12207,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12302,7 +12219,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12449,7 +12366,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>239</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12652,6 +12569,62 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
@@ -12752,7 +12725,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154102</v>
+        <v>20154119</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -12776,7 +12749,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>240</v>
+        <v>56</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12792,7 +12765,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>241</v>
+        <v>57</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12808,7 +12781,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>242</v>
+        <v>58</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12824,7 +12797,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>243</v>
+        <v>59</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12840,7 +12813,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>244</v>
+        <v>60</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12855,9 +12828,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>94</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12865,7 +12836,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12876,7 +12847,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12885,7 +12856,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12897,7 +12868,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12905,7 +12876,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>245</v>
+        <v>61</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13001,7 +12972,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>246</v>
+        <v>62</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13028,7 +12999,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -13044,7 +13015,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>163</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -13242,1252 +13213,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20154110</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>247</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>248</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>249</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>250</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>251</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>252</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>253</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2014</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20154119</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2013</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <sheetPr>
@@ -14617,7 +13342,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14633,7 +13358,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14649,7 +13374,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14665,7 +13390,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14681,7 +13406,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14696,9 +13421,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14706,7 +13429,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14717,7 +13440,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14726,7 +13449,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14738,7 +13461,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14746,7 +13469,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14842,7 +13565,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14885,7 +13608,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15212,7 +13935,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15228,7 +13951,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15244,7 +13967,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15260,7 +13983,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15276,7 +13999,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15291,9 +14014,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>80</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15301,7 +14022,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15312,7 +14033,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15321,7 +14042,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15333,7 +14054,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15341,7 +14062,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -15437,7 +14158,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15480,7 +14201,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15731,7 +14452,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -15781,7 +14504,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154774</v>
+        <v>20154107</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -15805,7 +14528,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15821,7 +14544,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15836,7 +14559,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>82</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -15850,7 +14575,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>83</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -15864,7 +14591,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>84</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -15885,7 +14614,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>85</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -15894,14 +14625,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -15911,13 +14646,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>86</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -16012,7 +14751,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16038,7 +14777,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2014</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -16052,7 +14793,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>79</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -16302,7 +15045,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -16352,7 +15097,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154492</v>
+        <v>20154123</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -16376,7 +15121,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -16392,7 +15137,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -16407,7 +15152,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>90</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -16421,7 +15168,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>91</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -16435,7 +15184,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>92</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -16456,7 +15207,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -16465,14 +15218,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -16482,13 +15239,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>93</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -16583,7 +15344,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16609,7 +15370,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2008</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -16623,7 +15386,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>95</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -16925,7 +15690,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154107</v>
+        <v>20154114</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -16949,7 +15714,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -16965,7 +15730,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -16981,7 +15746,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -16997,7 +15762,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17013,7 +15778,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17028,9 +15793,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>94</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17038,7 +15801,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17049,7 +15812,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17058,7 +15821,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17070,7 +15833,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17078,7 +15841,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17174,7 +15937,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17201,7 +15964,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -17217,7 +15980,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -17520,7 +16283,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154123</v>
+        <v>20154106</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -17544,7 +16307,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17560,7 +16323,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17576,7 +16339,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17592,7 +16355,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17608,7 +16371,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17623,9 +16386,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>80</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17633,7 +16394,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17644,7 +16405,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17653,7 +16414,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17665,7 +16426,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17673,7 +16434,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17769,7 +16530,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17796,7 +16557,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2008</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -17812,7 +16573,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
